--- a/data/trans_orig/P34A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>298108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>276011</v>
+        <v>273769</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>322440</v>
+        <v>322017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5198060272874332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4812754591995881</v>
+        <v>0.4773661830975011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5622334307768722</v>
+        <v>0.5614958197686988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>493</v>
@@ -765,19 +765,19 @@
         <v>519074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>487895</v>
+        <v>488519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>546922</v>
+        <v>548108</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5728405377471921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5384319040406297</v>
+        <v>0.539120681256153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6035726555090489</v>
+        <v>0.6048811719648201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>783</v>
@@ -786,19 +786,19 @@
         <v>817183</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>776107</v>
+        <v>776311</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>853237</v>
+        <v>856781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5522846928900926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5245241388918894</v>
+        <v>0.5246619846034887</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5766518162560217</v>
+        <v>0.5790466094639457</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>275391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251059</v>
+        <v>251482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297488</v>
+        <v>299730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4801939727125668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4377665692231278</v>
+        <v>0.438504180231301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5187245408004119</v>
+        <v>0.522633816902499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>376</v>
@@ -836,19 +836,19 @@
         <v>387067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>359219</v>
+        <v>358033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>418246</v>
+        <v>417622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4271594622528079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3964273444909511</v>
+        <v>0.3951188280351798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4615680959593704</v>
+        <v>0.460879318743847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>650</v>
@@ -857,19 +857,19 @@
         <v>662457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>626403</v>
+        <v>622859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>703533</v>
+        <v>703329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4477153071099074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4233481837439778</v>
+        <v>0.4209533905360544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4754758611081104</v>
+        <v>0.4753380153965114</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>463835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>433139</v>
+        <v>433039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498613</v>
+        <v>496233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4351577290646901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4063601017531815</v>
+        <v>0.4062656190488474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4677861406632488</v>
+        <v>0.4655530642129828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>428</v>
@@ -982,19 +982,19 @@
         <v>446741</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>417491</v>
+        <v>418007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>479605</v>
+        <v>483608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.429967874306281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4018159854158359</v>
+        <v>0.4023125738430746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4615976795502445</v>
+        <v>0.4654511789002731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>879</v>
@@ -1003,19 +1003,19 @@
         <v>910576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>864926</v>
+        <v>863373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>957663</v>
+        <v>955639</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4325959507351608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.410908880374239</v>
+        <v>0.4101710145107564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4549661131034253</v>
+        <v>0.4540044864893337</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>602065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567287</v>
+        <v>569667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>632761</v>
+        <v>632861</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5648422709353099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5322138593367512</v>
+        <v>0.5344469357870171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5936398982468185</v>
+        <v>0.5937343809511526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>582</v>
@@ -1053,19 +1053,19 @@
         <v>592269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>559405</v>
+        <v>555402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>621519</v>
+        <v>621003</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.570032125693719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5384023204497554</v>
+        <v>0.5345488210997269</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5981840145841639</v>
+        <v>0.5976874261569254</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1175</v>
@@ -1074,19 +1074,19 @@
         <v>1194334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1147247</v>
+        <v>1149271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1239984</v>
+        <v>1241537</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5674040492648391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5450338868965746</v>
+        <v>0.5459955135106662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.589091119625761</v>
+        <v>0.5898289854892436</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>389800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>361738</v>
+        <v>357963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>422306</v>
+        <v>420126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3517543415337439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3264318750690103</v>
+        <v>0.3230247466479542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3810875189557956</v>
+        <v>0.3791206047431294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>372</v>
@@ -1199,19 +1199,19 @@
         <v>382884</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>354442</v>
+        <v>353767</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>414936</v>
+        <v>415318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3903923771666583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3613921035559658</v>
+        <v>0.3607036372400122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4230729437699464</v>
+        <v>0.4234622228380042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>752</v>
@@ -1220,19 +1220,19 @@
         <v>772684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>727135</v>
+        <v>732639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>818635</v>
+        <v>821422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3698952069452006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3480901704921352</v>
+        <v>0.3507252644988731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3918924315273771</v>
+        <v>0.3932269824897187</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>718359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>685853</v>
+        <v>688033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>746421</v>
+        <v>750196</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6482456584662561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6189124810442047</v>
+        <v>0.6208793952568705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6735681249309899</v>
+        <v>0.6769752533520458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>597</v>
@@ -1270,19 +1270,19 @@
         <v>597884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565832</v>
+        <v>565450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626326</v>
+        <v>627001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6096076228333418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5769270562300537</v>
+        <v>0.5765377771619961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6386078964440342</v>
+        <v>0.6392963627599879</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1307</v>
@@ -1291,19 +1291,19 @@
         <v>1316243</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1270292</v>
+        <v>1267505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1361792</v>
+        <v>1356288</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6301047930547994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6081075684726228</v>
+        <v>0.6067730175102815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6519098295078647</v>
+        <v>0.6492747355011269</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>151476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133490</v>
+        <v>130364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173187</v>
+        <v>172800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3436149207554371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3028147755951374</v>
+        <v>0.2957242635695649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3928657362919221</v>
+        <v>0.3919865926178818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1416,19 +1416,19 @@
         <v>140707</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123265</v>
+        <v>122268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158601</v>
+        <v>159076</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4228733133867103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3704519908429327</v>
+        <v>0.3674561226630456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.476650189894732</v>
+        <v>0.478077277563762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -1437,19 +1437,19 @@
         <v>292183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>264072</v>
+        <v>266430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317566</v>
+        <v>317697</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3777067855888512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3413671519435837</v>
+        <v>0.3444162997035451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4105198311807406</v>
+        <v>0.410688969296365</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>289355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267644</v>
+        <v>268031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307341</v>
+        <v>310467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6563850792445628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.607134263708078</v>
+        <v>0.6080134073821183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6971852244048626</v>
+        <v>0.7042757364304354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>192</v>
@@ -1487,19 +1487,19 @@
         <v>192034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174140</v>
+        <v>173665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209476</v>
+        <v>210473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5771266866132897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.523349810105268</v>
+        <v>0.5219227224362379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6295480091570673</v>
+        <v>0.6325438773369539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>477</v>
@@ -1508,19 +1508,19 @@
         <v>481388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456005</v>
+        <v>455874</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>509499</v>
+        <v>507141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6222932144111488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5894801688192595</v>
+        <v>0.5893110307036351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6586328480564163</v>
+        <v>0.6555837002964549</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1303219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1245341</v>
+        <v>1246120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1359584</v>
+        <v>1364327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4087389425736798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3905863222040892</v>
+        <v>0.390830483431325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4264173557308442</v>
+        <v>0.4279048693026869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1432</v>
@@ -1633,19 +1633,19 @@
         <v>1489407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1432195</v>
+        <v>1435288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1546611</v>
+        <v>1545301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4570611423891748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4395043296728908</v>
+        <v>0.4404533303521466</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4746156162021035</v>
+        <v>0.4742136653699034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2698</v>
@@ -1654,19 +1654,19 @@
         <v>2792625</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2711004</v>
+        <v>2712905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2877191</v>
+        <v>2876829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4331633916178925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4205031114801923</v>
+        <v>0.420798034505273</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4462804411667751</v>
+        <v>0.446224253919539</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1885170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1828805</v>
+        <v>1824062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1943048</v>
+        <v>1942269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5912610574263202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5735826442691558</v>
+        <v>0.5720951306973132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6094136777959108</v>
+        <v>0.6091695165686751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1747</v>
@@ -1704,19 +1704,19 @@
         <v>1769253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1712049</v>
+        <v>1713359</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1826465</v>
+        <v>1823372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5429388576108252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5253843837978965</v>
+        <v>0.5257863346300965</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5604956703271092</v>
+        <v>0.5595466696478534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3609</v>
@@ -1725,19 +1725,19 @@
         <v>3654423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3569857</v>
+        <v>3570219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3736044</v>
+        <v>3734143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5668366083821075</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5537195588332249</v>
+        <v>0.553775746080461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5794968885198077</v>
+        <v>0.579201965494727</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>269392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241616</v>
+        <v>239377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299944</v>
+        <v>299412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2580539858877046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.23144750678506</v>
+        <v>0.2293029513261393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2873208925918305</v>
+        <v>0.2868114138053995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>369</v>
@@ -2090,19 +2090,19 @@
         <v>399164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>364431</v>
+        <v>367329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>434662</v>
+        <v>433901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3564190024707429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3254061733159963</v>
+        <v>0.3279930698675637</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3881158964240067</v>
+        <v>0.3874366685794854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>619</v>
@@ -2111,19 +2111,19 @@
         <v>668555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>622520</v>
+        <v>624467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>714055</v>
+        <v>715891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.308963753980346</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2876891265840082</v>
+        <v>0.2885889612914204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3299908722281126</v>
+        <v>0.3308393076616293</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>774543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>743991</v>
+        <v>744523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>802319</v>
+        <v>804558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7419460141122954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7126791074081694</v>
+        <v>0.7131885861946003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.76855249321494</v>
+        <v>0.7706970486738606</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -2161,19 +2161,19 @@
         <v>720764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>685266</v>
+        <v>686027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>755497</v>
+        <v>752599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6435809975292571</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6118841035759935</v>
+        <v>0.6125633314205146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6745938266840037</v>
+        <v>0.6720069301324363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1390</v>
@@ -2182,19 +2182,19 @@
         <v>1495308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1449808</v>
+        <v>1447972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1541343</v>
+        <v>1539396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.691036246019654</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6700091277718873</v>
+        <v>0.6691606923383706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7123108734159914</v>
+        <v>0.7114110387085795</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>226767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201836</v>
+        <v>198814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>255553</v>
+        <v>253776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2320880443720682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2065717389826462</v>
+        <v>0.2034792274148055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2615494721720319</v>
+        <v>0.2597308183961181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>306</v>
@@ -2307,19 +2307,19 @@
         <v>326299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>298199</v>
+        <v>296337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>358237</v>
+        <v>358090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.298490214356111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2727852266764822</v>
+        <v>0.2710820913896283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3277060824465226</v>
+        <v>0.3275715380444254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>515</v>
@@ -2328,19 +2328,19 @@
         <v>553066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>511142</v>
+        <v>510534</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>592573</v>
+        <v>596799</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2671509297173466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2469000886766438</v>
+        <v>0.2466065233388064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2862345659406154</v>
+        <v>0.2882758299761854</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>750306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721520</v>
+        <v>723297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>775237</v>
+        <v>778259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7679119556279318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7384505278279681</v>
+        <v>0.7402691816038819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7934282610173538</v>
+        <v>0.7965207725851946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>713</v>
@@ -2378,19 +2378,19 @@
         <v>766866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>734928</v>
+        <v>735075</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>794966</v>
+        <v>796828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.701509785643889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6722939175534774</v>
+        <v>0.6724284619555744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7272147733235178</v>
+        <v>0.7289179086103718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1428</v>
@@ -2399,19 +2399,19 @@
         <v>1517171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1477664</v>
+        <v>1473438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1559095</v>
+        <v>1559703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7328490702826534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7137654340593846</v>
+        <v>0.7117241700238146</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7530999113233562</v>
+        <v>0.7533934766611936</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>184632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160397</v>
+        <v>159505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210463</v>
+        <v>212241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2088081793216574</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1814001131802293</v>
+        <v>0.1803906533179484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2380213090363151</v>
+        <v>0.2400325508627493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -2524,19 +2524,19 @@
         <v>244286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>218894</v>
+        <v>216066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>273101</v>
+        <v>268988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2789298031008598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.249937289173669</v>
+        <v>0.2467084672449929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3118316562048761</v>
+        <v>0.3071354736267294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>401</v>
@@ -2545,19 +2545,19 @@
         <v>428918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>392186</v>
+        <v>390609</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>465685</v>
+        <v>466147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2437012114714275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2228312922630974</v>
+        <v>0.2219353907497255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2645915941288256</v>
+        <v>0.2648541622070205</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>699586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>673755</v>
+        <v>671977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>723821</v>
+        <v>724713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7911918206783426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7619786909636849</v>
+        <v>0.7599674491372507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8185998868197707</v>
+        <v>0.8196093466820515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -2595,19 +2595,19 @@
         <v>631510</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>602695</v>
+        <v>606808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656902</v>
+        <v>659730</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7210701968991402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6881683437951239</v>
+        <v>0.6928645263732708</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.750062710826331</v>
+        <v>0.7532915327550073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1249</v>
@@ -2616,19 +2616,19 @@
         <v>1331096</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1294329</v>
+        <v>1293867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1367828</v>
+        <v>1369405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7562987885285725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7354084058711744</v>
+        <v>0.7351458377929792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7771687077369026</v>
+        <v>0.7780646092502743</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>85712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69020</v>
+        <v>69591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103992</v>
+        <v>104756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1706850511077482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1374462150358051</v>
+        <v>0.1385820126876226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2070878078003788</v>
+        <v>0.2086102282098408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -2741,19 +2741,19 @@
         <v>122669</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103037</v>
+        <v>103817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142500</v>
+        <v>142958</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.270950883111112</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2275872699386927</v>
+        <v>0.2293095015998999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3147536689719628</v>
+        <v>0.3157655180393173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -2762,19 +2762,19 @@
         <v>208381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182275</v>
+        <v>182663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234913</v>
+        <v>237024</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.218223055200282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1908844675711362</v>
+        <v>0.1912906021570651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2460086946125626</v>
+        <v>0.2482198526029422</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>416450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>398170</v>
+        <v>397406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433142</v>
+        <v>432571</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8293149488922518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7929121921996211</v>
+        <v>0.7913897717901591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8625537849641948</v>
+        <v>0.8614179873123773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -2812,19 +2812,19 @@
         <v>330067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310236</v>
+        <v>309778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349699</v>
+        <v>348919</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.729049116888888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6852463310280371</v>
+        <v>0.6842344819606827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7724127300613073</v>
+        <v>0.7706904984001002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>675</v>
@@ -2833,19 +2833,19 @@
         <v>746516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719984</v>
+        <v>717873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>772622</v>
+        <v>772234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.781776944799718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7539913053874373</v>
+        <v>0.7517801473970578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8091155324288638</v>
+        <v>0.8087093978429349</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>766502</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>716549</v>
+        <v>716142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>815909</v>
+        <v>814674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2249529717697495</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2102927376663995</v>
+        <v>0.2101733413622704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2394528563122536</v>
+        <v>0.2390905978825546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1019</v>
@@ -2958,19 +2958,19 @@
         <v>1092417</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1038527</v>
+        <v>1034542</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1156563</v>
+        <v>1148862</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3084509350102398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2932345557880362</v>
+        <v>0.2921095960829501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3265629171935563</v>
+        <v>0.32438848130911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1732</v>
@@ -2979,19 +2979,19 @@
         <v>1858919</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1786279</v>
+        <v>1779506</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1937290</v>
+        <v>1939890</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2675084347392494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2570551627446389</v>
+        <v>0.2560804893101073</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2787864204344456</v>
+        <v>0.2791605723189758</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2640885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2591478</v>
+        <v>2592713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2690838</v>
+        <v>2691245</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7750470282302505</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7605471436877465</v>
+        <v>0.7609094021174458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7897072623336006</v>
+        <v>0.7898266586377297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2264</v>
@@ -3029,19 +3029,19 @@
         <v>2449207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2385061</v>
+        <v>2392762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2503097</v>
+        <v>2507082</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6915490649897602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6734370828064437</v>
+        <v>0.6756115186908899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7067654442119636</v>
+        <v>0.7078904039170498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4742</v>
@@ -3050,19 +3050,19 @@
         <v>5090092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5011721</v>
+        <v>5009121</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5162732</v>
+        <v>5169505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7324915652607507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7212135795655544</v>
+        <v>0.7208394276810243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7429448372553612</v>
+        <v>0.7439195106898928</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>443361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>410049</v>
+        <v>411166</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>477235</v>
+        <v>479949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3930517907844276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3635193893781678</v>
+        <v>0.364510109709821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4230816675226238</v>
+        <v>0.4254876830023421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>541</v>
@@ -3415,19 +3415,19 @@
         <v>594694</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>558716</v>
+        <v>558602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>631058</v>
+        <v>632987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4721436225889709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4435798472577342</v>
+        <v>0.4434897271911378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5010138731468586</v>
+        <v>0.5025456445746697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>960</v>
@@ -3436,19 +3436,19 @@
         <v>1038055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>984893</v>
+        <v>987118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1084710</v>
+        <v>1085702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4347768372791946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4125104268228512</v>
+        <v>0.413442408870106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4543178232944268</v>
+        <v>0.4547331963585655</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>684636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>650762</v>
+        <v>648048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>717948</v>
+        <v>716831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6069482092155724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5769183324773762</v>
+        <v>0.5745123169976579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6364806106218323</v>
+        <v>0.6354898902901791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>647</v>
@@ -3486,19 +3486,19 @@
         <v>664867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>628503</v>
+        <v>626574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>700845</v>
+        <v>700959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5278563774110292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4989861268531414</v>
+        <v>0.4974543554253303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5564201527422658</v>
+        <v>0.5565102728088622</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1294</v>
@@ -3507,19 +3507,19 @@
         <v>1349503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1302848</v>
+        <v>1301856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1402665</v>
+        <v>1400440</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5652231627208054</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5456821767055733</v>
+        <v>0.5452668036414345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5874895731771488</v>
+        <v>0.5865575911298937</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>298479</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270349</v>
+        <v>270228</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327728</v>
+        <v>326845</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3284227202273392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2974710974692603</v>
+        <v>0.2973376483911443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3606065121093493</v>
+        <v>0.3596345836990423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>389</v>
@@ -3632,19 +3632,19 @@
         <v>418647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>387219</v>
+        <v>386320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>449937</v>
+        <v>452421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4159533050842875</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3847280019101935</v>
+        <v>0.3838349942285732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4470425744137381</v>
+        <v>0.4495100384622273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>681</v>
@@ -3653,19 +3653,19 @@
         <v>717125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>677318</v>
+        <v>671376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>761375</v>
+        <v>758352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3744193619467021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3536353666722413</v>
+        <v>0.3505329102541959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3975225346133046</v>
+        <v>0.3959444104770223</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>610346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581097</v>
+        <v>581980</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>638476</v>
+        <v>638597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6715772797726608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6393934878906509</v>
+        <v>0.6403654163009577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7025289025307397</v>
+        <v>0.7026623516088556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>562</v>
@@ -3703,19 +3703,19 @@
         <v>587828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556538</v>
+        <v>554054</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>619256</v>
+        <v>620155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5840466949157125</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5529574255862618</v>
+        <v>0.5504899615377726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6152719980898058</v>
+        <v>0.6161650057714267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1151</v>
@@ -3724,19 +3724,19 @@
         <v>1198175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1153925</v>
+        <v>1156948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1237982</v>
+        <v>1243924</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6255806380532979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6024774653866953</v>
+        <v>0.604055589522978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6463646333277587</v>
+        <v>0.6494670897458042</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>262725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>235171</v>
+        <v>236393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291419</v>
+        <v>289568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3189345889550149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2854854989464305</v>
+        <v>0.2869684766277542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3537672380660633</v>
+        <v>0.3515204145661066</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>297</v>
@@ -3849,19 +3849,19 @@
         <v>316994</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>291055</v>
+        <v>290242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>344082</v>
+        <v>345398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4111152597226648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3774745645575907</v>
+        <v>0.3764199705062422</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4462459041934255</v>
+        <v>0.4479528818180076</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>549</v>
@@ -3870,19 +3870,19 @@
         <v>579719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543034</v>
+        <v>542682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>618808</v>
+        <v>618814</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3635018739378257</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.340499243045354</v>
+        <v>0.3402783687748083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3880117130031813</v>
+        <v>0.3880155736092405</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>561034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532340</v>
+        <v>534191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>588588</v>
+        <v>587366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6810654110449851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6462327619339366</v>
+        <v>0.6484795854338933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7145145010535695</v>
+        <v>0.7130315233722456</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -3920,19 +3920,19 @@
         <v>454065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>426977</v>
+        <v>425661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>480004</v>
+        <v>480817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5888847402773352</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5537540958065744</v>
+        <v>0.5520471181819924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6225254354424093</v>
+        <v>0.6235800294937579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>966</v>
@@ -3941,19 +3941,19 @@
         <v>1015099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>976010</v>
+        <v>976004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1051784</v>
+        <v>1052136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6364981260621743</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6119882869968187</v>
+        <v>0.6119844263907595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6595007569546459</v>
+        <v>0.6597216312251919</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>132864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114503</v>
+        <v>112825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156465</v>
+        <v>154040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2622135060693788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2259773980174364</v>
+        <v>0.2226665821900922</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3087923436995685</v>
+        <v>0.3040066901943411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -4066,19 +4066,19 @@
         <v>175847</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154140</v>
+        <v>154426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197160</v>
+        <v>199331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3590919653476061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3147647924992719</v>
+        <v>0.3153497886347645</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4026156425507172</v>
+        <v>0.4070484909764849</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>288</v>
@@ -4087,19 +4087,19 @@
         <v>308710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279648</v>
+        <v>279063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>339829</v>
+        <v>342079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3098261295012176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2806589265338751</v>
+        <v>0.280072088117534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3410579729206499</v>
+        <v>0.3433160054267054</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>373837</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350236</v>
+        <v>352661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>392198</v>
+        <v>393876</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7377864939306211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6912076563004317</v>
+        <v>0.6959933098056591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7740226019825637</v>
+        <v>0.7773334178099078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -4137,19 +4137,19 @@
         <v>313851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>292538</v>
+        <v>290367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335558</v>
+        <v>335272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.640908034652394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5973843574492828</v>
+        <v>0.5929515090235148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6852352075007279</v>
+        <v>0.6846502113652353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -4158,19 +4158,19 @@
         <v>687688</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>656569</v>
+        <v>654319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716750</v>
+        <v>717335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6901738704987824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6589420270793499</v>
+        <v>0.6566839945732945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7193410734661245</v>
+        <v>0.7199279118824659</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1137429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1087502</v>
+        <v>1081271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1196124</v>
+        <v>1194867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.337788494640357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3229614506928125</v>
+        <v>0.3211107901077542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3552193237323465</v>
+        <v>0.3548461558718115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1389</v>
@@ -4283,19 +4283,19 @@
         <v>1506181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1447865</v>
+        <v>1443958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1572664</v>
+        <v>1562140</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4270681761261077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.410533159952376</v>
+        <v>0.4094253091214411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4459190706916296</v>
+        <v>0.442935217010846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2478</v>
@@ -4304,19 +4304,19 @@
         <v>2643610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2566279</v>
+        <v>2567086</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2724980</v>
+        <v>2729714</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3834611796853851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3722441949846</v>
+        <v>0.3723611546029086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.395263980573333</v>
+        <v>0.3959507795673429</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2229853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2171158</v>
+        <v>2172415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2279780</v>
+        <v>2286011</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.662211505359643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6447806762676533</v>
+        <v>0.6451538441281884</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6770385493071875</v>
+        <v>0.6788892098922452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1933</v>
@@ -4354,19 +4354,19 @@
         <v>2020611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1954128</v>
+        <v>1964652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2078927</v>
+        <v>2082834</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5729318238738923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5540809293083704</v>
+        <v>0.5570647829891541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5894668400476241</v>
+        <v>0.5905746908785589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4049</v>
@@ -4375,19 +4375,19 @@
         <v>4250465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4169095</v>
+        <v>4164361</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4327796</v>
+        <v>4326989</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6165388203146149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6047360194266671</v>
+        <v>0.6040492204326572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6277558050154</v>
+        <v>0.6276388453970916</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>225814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>202467</v>
+        <v>202213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251297</v>
+        <v>248469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4546691140345416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4076608757588128</v>
+        <v>0.4071502879745715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5059792408653767</v>
+        <v>0.5002842470969296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>463</v>
@@ -4740,19 +4740,19 @@
         <v>324409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>304213</v>
+        <v>302333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>348159</v>
+        <v>348688</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5237693689585295</v>
+        <v>0.5237693689585298</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4911630780338029</v>
+        <v>0.4881279141109214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5621158557564855</v>
+        <v>0.5629688584003537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>679</v>
@@ -4761,19 +4761,19 @@
         <v>550222</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>516400</v>
+        <v>513003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>583659</v>
+        <v>582000</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4930183552801424</v>
+        <v>0.4930183552801425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4627119981705743</v>
+        <v>0.4596682043625886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.522978982145844</v>
+        <v>0.5214926138191333</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>270841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245358</v>
+        <v>248186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294188</v>
+        <v>294442</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5453308859654584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4940207591346235</v>
+        <v>0.4997157529030705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5923391242411873</v>
+        <v>0.5928497120254286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -4811,19 +4811,19 @@
         <v>294964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271214</v>
+        <v>270685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315160</v>
+        <v>317040</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4762306310414702</v>
+        <v>0.4762306310414703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4378841442435144</v>
+        <v>0.4370311415996467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5088369219661972</v>
+        <v>0.5118720858890786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>630</v>
@@ -4832,19 +4832,19 @@
         <v>565806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>532369</v>
+        <v>534028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>599628</v>
+        <v>603025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5069816447198574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4770210178541558</v>
+        <v>0.4785073861808667</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5372880018294252</v>
+        <v>0.5403317956374112</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>371410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>336488</v>
+        <v>338431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>403218</v>
+        <v>403881</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3873561794889793</v>
+        <v>0.3873561794889792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3509356949055417</v>
+        <v>0.352961979743308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4205304945459186</v>
+        <v>0.421222228557795</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>738</v>
@@ -4957,19 +4957,19 @@
         <v>491812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>461844</v>
+        <v>461099</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>522050</v>
+        <v>519742</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4415552346404896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4146496383563178</v>
+        <v>0.4139807190072408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4687034625218591</v>
+        <v>0.4666313269684417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1103</v>
@@ -4978,19 +4978,19 @@
         <v>863221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>820133</v>
+        <v>819997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>907376</v>
+        <v>909626</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4164821069583053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3956930909303521</v>
+        <v>0.3956273173225252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.437785811415699</v>
+        <v>0.4388710269773148</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>587422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>555614</v>
+        <v>554951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>622344</v>
+        <v>620401</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6126438205110207</v>
+        <v>0.6126438205110208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5794695054540815</v>
+        <v>0.578777771442205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6490643050944586</v>
+        <v>0.6470380202566922</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>866</v>
@@ -5028,19 +5028,19 @@
         <v>622005</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>591767</v>
+        <v>594075</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>651973</v>
+        <v>652718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5584447653595105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5312965374781409</v>
+        <v>0.5333686730315587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5853503616436821</v>
+        <v>0.5860192809927594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1410</v>
@@ -5049,19 +5049,19 @@
         <v>1209428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1165273</v>
+        <v>1163023</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1252516</v>
+        <v>1252652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5835178930416947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5622141885843009</v>
+        <v>0.5611289730226852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.604306909069648</v>
+        <v>0.6043726826774748</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>331337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304228</v>
+        <v>298788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>367112</v>
+        <v>362515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3170525902594705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2911121740752642</v>
+        <v>0.2859067553146904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3512852882209475</v>
+        <v>0.3468856842872342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>569</v>
@@ -5174,19 +5174,19 @@
         <v>392139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>367212</v>
+        <v>365299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>418937</v>
+        <v>418926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3745876137434663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3507771674503604</v>
+        <v>0.3489495184231501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4001870169699517</v>
+        <v>0.4001762164709339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>915</v>
@@ -5195,19 +5195,19 @@
         <v>723476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>678933</v>
+        <v>685290</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>766158</v>
+        <v>769831</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3458448453238245</v>
+        <v>0.3458448453238246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3245518855842922</v>
+        <v>0.3275906868690004</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3662480984432573</v>
+        <v>0.3680038905020899</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>713718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677943</v>
+        <v>682540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740827</v>
+        <v>746267</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6829474097405295</v>
+        <v>0.6829474097405294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6487147117790525</v>
+        <v>0.6531143157127657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7088878259247356</v>
+        <v>0.7140932446853097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>946</v>
@@ -5245,19 +5245,19 @@
         <v>654715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627917</v>
+        <v>627928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>679642</v>
+        <v>681555</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6254123862565338</v>
+        <v>0.6254123862565336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5998129830300484</v>
+        <v>0.5998237835290661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6492228325496396</v>
+        <v>0.6510504815768499</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1628</v>
@@ -5266,19 +5266,19 @@
         <v>1368433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1325751</v>
+        <v>1322078</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1412976</v>
+        <v>1406619</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6541551546761755</v>
+        <v>0.6541551546761756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6337519015567428</v>
+        <v>0.6319961094979103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6754481144157076</v>
+        <v>0.6724093131309996</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>223969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196133</v>
+        <v>197248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>253896</v>
+        <v>252600</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2304863021125394</v>
+        <v>0.2304863021125395</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2018407020716707</v>
+        <v>0.2029881311431513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.261284528841624</v>
+        <v>0.2599508061586168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>370</v>
@@ -5391,19 +5391,19 @@
         <v>282926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>258966</v>
+        <v>256154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>312124</v>
+        <v>307754</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3118773187766785</v>
+        <v>0.3118773187766786</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2854650236830725</v>
+        <v>0.2823652061798704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3440622601434121</v>
+        <v>0.3392451324658544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>589</v>
@@ -5412,19 +5412,19 @@
         <v>506895</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>466459</v>
+        <v>470944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>546283</v>
+        <v>548835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2697836834924427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2482625705936837</v>
+        <v>0.2506495377620645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2907467576926924</v>
+        <v>0.2921051202751557</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>747754</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>717827</v>
+        <v>719123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>775590</v>
+        <v>774475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7695136978874606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7387154711583761</v>
+        <v>0.7400491938413831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7981592979283295</v>
+        <v>0.7970118688568487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>948</v>
@@ -5462,19 +5462,19 @@
         <v>624246</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>595048</v>
+        <v>599418</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648206</v>
+        <v>651018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6881226812233214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.655937739856588</v>
+        <v>0.6607548675341458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7145349763169274</v>
+        <v>0.7176347938201297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1672</v>
@@ -5483,19 +5483,19 @@
         <v>1372000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1332612</v>
+        <v>1330060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1412436</v>
+        <v>1407951</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7302163165075574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7092532423073077</v>
+        <v>0.7078948797248443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7517374294063162</v>
+        <v>0.7493504622379356</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1152529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1097253</v>
+        <v>1088056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1221132</v>
+        <v>1209689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3319243822727914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3160048981460312</v>
+        <v>0.3133563619847447</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3516815525802964</v>
+        <v>0.3483861595198001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2140</v>
@@ -5608,19 +5608,19 @@
         <v>1491285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1433634</v>
+        <v>1437406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1540230</v>
+        <v>1547516</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.404447473815874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3888120105723612</v>
+        <v>0.3898350399748974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4177216329809748</v>
+        <v>0.4196976346042713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3286</v>
@@ -5629,19 +5629,19 @@
         <v>2643815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2562748</v>
+        <v>2561213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2728571</v>
+        <v>2726630</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.369274617891614</v>
+        <v>0.3692746178916141</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3579517038528894</v>
+        <v>0.3577372661105925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3811129669073017</v>
+        <v>0.3808418842480402</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2319736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2251133</v>
+        <v>2262576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2375012</v>
+        <v>2384209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6680756177272086</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.648318447419704</v>
+        <v>0.6516138404801999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6839951018539698</v>
+        <v>0.686643638015255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3153</v>
@@ -5679,19 +5679,19 @@
         <v>2195931</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2146986</v>
+        <v>2139700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2253582</v>
+        <v>2249810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5955525261841258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5822783670190252</v>
+        <v>0.5803023653957288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6111879894276387</v>
+        <v>0.6101649600251027</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5340</v>
@@ -5700,19 +5700,19 @@
         <v>4515666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4430910</v>
+        <v>4432851</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4596733</v>
+        <v>4598268</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6307253821083859</v>
+        <v>0.630725382108386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6188870330926983</v>
+        <v>0.6191581157519596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6420482961471103</v>
+        <v>0.6422627338894074</v>
       </c>
     </row>
     <row r="18">
